--- a/Excel Project Dataset.xlsx
+++ b/Excel Project Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14b3020f3552f6fc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="207" documentId="13_ncr:1_{087F58DD-7350-40A5-A8D3-53644406F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5A2375B-4AC6-4DE4-B48B-8E0593F9EB10}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BB838E-1602-42E4-A459-96DE6575A571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bike_buyers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,14 +719,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,1372 +770,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="478">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -14143,8 +12774,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Marital status">
@@ -14167,7 +12798,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14221,8 +12852,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Education">
@@ -14245,7 +12876,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14299,8 +12930,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Region">
@@ -14323,7 +12954,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -30677,290 +29308,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31809D33-DC86-4B25-B8ED-AB7F6CD72D38}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A17:D24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item h="1" x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="7">
-        <item x="0"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="460">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="459">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="458">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="457">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="456">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="13" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="455">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="12">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E34507F9-A19A-4DAB-BA32-7B952217C59E}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E34507F9-A19A-4DAB-BA32-7B952217C59E}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A34:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -31048,42 +29396,42 @@
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="470">
+    <format dxfId="9">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="469">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="468">
+    <format dxfId="7">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="467">
+    <format dxfId="6">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="466">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="465">
+    <format dxfId="4">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="464">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="463">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="462">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="461">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -31221,8 +29569,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A1A6C31-563A-41F9-9267-224274FF40F5}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A1A6C31-563A-41F9-9267-224274FF40F5}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
   <location ref="A49:D69" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -31405,13 +29753,13 @@
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="477">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="476">
+    <format dxfId="15">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="475">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="11" count="50">
@@ -31469,7 +29817,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="474">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="11" count="3">
@@ -31480,17 +29828,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="473">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="472">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="471">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -31604,8 +29952,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3521515A-D12A-4640-9B4E-C9E1EED4CC23}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3521515A-D12A-4640-9B4E-C9E1EED4CC23}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
   <location ref="A1:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -31846,6 +30194,289 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="6" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31809D33-DC86-4B25-B8ED-AB7F6CD72D38}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A17:D24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item h="1" x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="7">
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="22">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="13" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="12">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -32238,8 +30869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1027"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1001"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77484,7 +76115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB4A339-A7C0-4506-9A7C-0ED4E5133FFE}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
@@ -77494,101 +76125,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -77648,13 +76279,13 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3">
         <v>85000</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3">
         <v>68750</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3">
         <v>74166.666666666672</v>
       </c>
     </row>
@@ -77662,13 +76293,13 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>78181.818181818177</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4">
         <v>72727.272727272721</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4">
         <v>75454.545454545456</v>
       </c>
     </row>
@@ -77676,13 +76307,13 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>80000</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>71052.631578947374</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>75000</v>
       </c>
     </row>
@@ -77712,13 +76343,13 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="1">
         <v>9</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="1">
         <v>11</v>
       </c>
     </row>
@@ -77726,13 +76357,13 @@
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="1">
         <v>5</v>
       </c>
     </row>
@@ -77740,13 +76371,13 @@
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="1">
         <v>4</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="1">
         <v>7</v>
       </c>
     </row>
@@ -77754,13 +76385,13 @@
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="1">
         <v>5</v>
       </c>
     </row>
@@ -77768,13 +76399,13 @@
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="1">
         <v>6</v>
       </c>
     </row>
@@ -77782,13 +76413,13 @@
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="1">
         <v>15</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="1">
         <v>19</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="1">
         <v>34</v>
       </c>
     </row>
@@ -77820,13 +76451,13 @@
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="1">
         <v>1</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="1">
         <v>4</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="1">
         <v>5</v>
       </c>
     </row>
@@ -77834,13 +76465,13 @@
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="1">
         <v>12</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="1">
         <v>13</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="1">
         <v>25</v>
       </c>
     </row>
@@ -77848,13 +76479,13 @@
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="1">
         <v>4</v>
       </c>
     </row>
@@ -77862,13 +76493,13 @@
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="1">
         <v>15</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="1">
         <v>19</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="1">
         <v>34</v>
       </c>
     </row>
@@ -77898,11 +76529,11 @@
       <c r="A51" s="1">
         <v>26</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1">
         <v>2</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="1">
         <v>2</v>
       </c>
     </row>
@@ -77910,11 +76541,11 @@
       <c r="A52" s="1">
         <v>27</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -77922,11 +76553,11 @@
       <c r="A53" s="1">
         <v>29</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1">
         <v>1</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -77934,11 +76565,11 @@
       <c r="A54" s="1">
         <v>30</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="1">
         <v>1</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -77946,13 +76577,13 @@
       <c r="A55" s="1">
         <v>32</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="1">
         <v>1</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="1">
         <v>2</v>
       </c>
     </row>
@@ -77960,11 +76591,11 @@
       <c r="A56" s="1">
         <v>36</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1">
         <v>1</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="1">
         <v>1</v>
       </c>
     </row>
@@ -77972,13 +76603,13 @@
       <c r="A57" s="1">
         <v>37</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="1">
         <v>1</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="1">
         <v>1</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="1">
         <v>2</v>
       </c>
     </row>
@@ -77986,11 +76617,11 @@
       <c r="A58" s="1">
         <v>38</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1">
         <v>2</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="1">
         <v>2</v>
       </c>
     </row>
@@ -77998,13 +76629,13 @@
       <c r="A59" s="1">
         <v>40</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="1">
         <v>2</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="1">
         <v>1</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="1">
         <v>3</v>
       </c>
     </row>
@@ -78012,13 +76643,13 @@
       <c r="A60" s="1">
         <v>41</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="1">
         <v>1</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="1">
         <v>1</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="1">
         <v>2</v>
       </c>
     </row>
@@ -78026,13 +76657,13 @@
       <c r="A61" s="1">
         <v>43</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="1">
         <v>1</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="1">
         <v>1</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="1">
         <v>2</v>
       </c>
     </row>
@@ -78040,13 +76671,13 @@
       <c r="A62" s="1">
         <v>46</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="1">
         <v>2</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="1">
         <v>1</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="1">
         <v>3</v>
       </c>
     </row>
@@ -78054,13 +76685,13 @@
       <c r="A63" s="1">
         <v>47</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="1">
         <v>3</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="1">
         <v>5</v>
       </c>
     </row>
@@ -78068,13 +76699,13 @@
       <c r="A64" s="1">
         <v>48</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="1">
         <v>1</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="1">
         <v>1</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="1">
         <v>2</v>
       </c>
     </row>
@@ -78082,11 +76713,11 @@
       <c r="A65" s="1">
         <v>52</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1">
         <v>1</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="1">
         <v>1</v>
       </c>
     </row>
@@ -78094,11 +76725,11 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="1">
         <v>1</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -78106,11 +76737,11 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="1">
         <v>2</v>
       </c>
     </row>
@@ -78118,11 +76749,11 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="1">
         <v>1</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1">
         <v>1</v>
       </c>
     </row>
@@ -78130,13 +76761,13 @@
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="1">
         <v>15</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="1">
         <v>19</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="1">
         <v>34</v>
       </c>
     </row>
